--- a/biology/Biologie cellulaire et moléculaire/LAG3/LAG3.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/LAG3/LAG3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le LAG3, LAG-3 (pour « Lymphocyte-activation gene 3 ») ou CD223, est une protéine avec un rôle d'inhibiteur de point de contrôle. Son gène LAG3 est situé sur le chromosome 12 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le LAG3 se situe sur la paroi des lymphocytes T activés et sur celles des lymphocytes NK[5].
-Il régule l'activité des lymphocytes CD4[6]. Il se lie au complexe majeur d'histocompatibilité de classe II, permettant au mélanome d'être résistant à l'apoptose[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le LAG3 se situe sur la paroi des lymphocytes T activés et sur celles des lymphocytes NK.
+Il régule l'activité des lymphocytes CD4. Il se lie au complexe majeur d'histocompatibilité de classe II, permettant au mélanome d'être résistant à l'apoptose.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'expression du LAG3 sur la paroi des lymphocytes est fortement augmentée au niveau de plusieurs cancers[5].
-Le relatimab est un anticorps monoclonal ciblant cette protéine. Utilisé en association avec le nivolumab, il permet une meilleure réponse au traitement en cas de mélanome avancé[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'expression du LAG3 sur la paroi des lymphocytes est fortement augmentée au niveau de plusieurs cancers.
+Le relatimab est un anticorps monoclonal ciblant cette protéine. Utilisé en association avec le nivolumab, il permet une meilleure réponse au traitement en cas de mélanome avancé.
 </t>
         </is>
       </c>
